--- a/py_work/excel/211118/score.xlsx
+++ b/py_work/excel/211118/score.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,193 +424,31 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>국어</t>
+          <t>50</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>영어</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>수학</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>총점</t>
+          <t>180</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>평균</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>213</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>459</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>153.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.66</t>
+          <t>60.0</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/py_work/excel/211118/score.xlsx
+++ b/py_work/excel/211118/score.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,31 +424,139 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>18.33</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/py_work/excel/211118/score.xlsx
+++ b/py_work/excel/211118/score.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,81 +478,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>18.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>18.33</t>
+          <t>2.0</t>
         </is>
       </c>
     </row>
